--- a/MATRICES_WORKSPACES_NEW/BLACK_SUNRISE_YCbCr/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
+++ b/MATRICES_WORKSPACES_NEW/BLACK_SUNRISE_YCbCr/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
@@ -66,7 +66,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="15.37890625" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="12.7109375" customWidth="true"/>
@@ -78,7 +78,7 @@
     <col min="18" max="18" width="13.7109375" customWidth="true"/>
     <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="12.7109375" customWidth="true"/>
-    <col min="21" max="21" width="15.37890625" customWidth="true"/>
+    <col min="21" max="21" width="15.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
@@ -87,11 +87,11 @@
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="15.37890625" customWidth="true"/>
-    <col min="30" max="30" width="13.7109375" customWidth="true"/>
+    <col min="30" max="30" width="14.7109375" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="12.7109375" customWidth="true"/>
     <col min="33" max="33" width="15.7109375" customWidth="true"/>
-    <col min="34" max="34" width="14.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
     <col min="35" max="35" width="12.7109375" customWidth="true"/>
     <col min="36" max="36" width="12.7109375" customWidth="true"/>
     <col min="37" max="37" width="12.7109375" customWidth="true"/>
@@ -99,1221 +99,1221 @@
     <col min="39" max="39" width="12.7109375" customWidth="true"/>
     <col min="40" max="40" width="12.7109375" customWidth="true"/>
     <col min="41" max="41" width="15.37890625" customWidth="true"/>
-    <col min="42" max="42" width="13.7109375" customWidth="true"/>
+    <col min="42" max="42" width="14.7109375" customWidth="true"/>
     <col min="43" max="43" width="12.7109375" customWidth="true"/>
     <col min="44" max="44" width="12.7109375" customWidth="true"/>
     <col min="45" max="45" width="15.7109375" customWidth="true"/>
-    <col min="46" max="46" width="14.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
     <col min="47" max="47" width="12.7109375" customWidth="true"/>
     <col min="48" max="48" width="12.7109375" customWidth="true"/>
     <col min="49" max="49" width="13.7109375" customWidth="true"/>
     <col min="50" max="50" width="12.7109375" customWidth="true"/>
     <col min="51" max="51" width="12.7109375" customWidth="true"/>
     <col min="52" max="52" width="12.7109375" customWidth="true"/>
-    <col min="53" max="53" width="14.37890625" customWidth="true"/>
+    <col min="53" max="53" width="15.37890625" customWidth="true"/>
     <col min="54" max="54" width="13.7109375" customWidth="true"/>
     <col min="55" max="55" width="12.7109375" customWidth="true"/>
     <col min="56" max="56" width="12.7109375" customWidth="true"/>
     <col min="57" max="57" width="15.7109375" customWidth="true"/>
-    <col min="58" max="58" width="13.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
     <col min="59" max="59" width="12.7109375" customWidth="true"/>
     <col min="60" max="60" width="12.7109375" customWidth="true"/>
     <col min="61" max="61" width="13.7109375" customWidth="true"/>
     <col min="62" max="62" width="12.7109375" customWidth="true"/>
     <col min="63" max="63" width="12.7109375" customWidth="true"/>
     <col min="64" max="64" width="12.7109375" customWidth="true"/>
-    <col min="65" max="65" width="14.37890625" customWidth="true"/>
+    <col min="65" max="65" width="15.37890625" customWidth="true"/>
     <col min="66" max="66" width="13.7109375" customWidth="true"/>
     <col min="67" max="67" width="12.7109375" customWidth="true"/>
     <col min="68" max="68" width="12.7109375" customWidth="true"/>
     <col min="69" max="69" width="15.7109375" customWidth="true"/>
-    <col min="70" max="70" width="13.7109375" customWidth="true"/>
+    <col min="70" max="70" width="12.7109375" customWidth="true"/>
     <col min="71" max="71" width="12.7109375" customWidth="true"/>
     <col min="72" max="72" width="12.7109375" customWidth="true"/>
     <col min="73" max="73" width="12.7109375" customWidth="true"/>
     <col min="74" max="74" width="12.7109375" customWidth="true"/>
     <col min="75" max="75" width="12.7109375" customWidth="true"/>
     <col min="76" max="76" width="12.7109375" customWidth="true"/>
-    <col min="77" max="77" width="15.37890625" customWidth="true"/>
-    <col min="78" max="78" width="13.7109375" customWidth="true"/>
+    <col min="77" max="77" width="13.7109375" customWidth="true"/>
+    <col min="78" max="78" width="14.7109375" customWidth="true"/>
     <col min="79" max="79" width="12.7109375" customWidth="true"/>
     <col min="80" max="80" width="12.7109375" customWidth="true"/>
-    <col min="81" max="81" width="15.37890625" customWidth="true"/>
-    <col min="82" max="82" width="14.7109375" customWidth="true"/>
+    <col min="81" max="81" width="15.7109375" customWidth="true"/>
+    <col min="82" max="82" width="12.7109375" customWidth="true"/>
     <col min="83" max="83" width="12.7109375" customWidth="true"/>
     <col min="84" max="84" width="12.7109375" customWidth="true"/>
     <col min="85" max="85" width="12.7109375" customWidth="true"/>
     <col min="86" max="86" width="12.7109375" customWidth="true"/>
     <col min="87" max="87" width="12.7109375" customWidth="true"/>
     <col min="88" max="88" width="12.7109375" customWidth="true"/>
-    <col min="89" max="89" width="15.37890625" customWidth="true"/>
-    <col min="90" max="90" width="13.7109375" customWidth="true"/>
+    <col min="89" max="89" width="13.7109375" customWidth="true"/>
+    <col min="90" max="90" width="14.7109375" customWidth="true"/>
     <col min="91" max="91" width="12.7109375" customWidth="true"/>
     <col min="92" max="92" width="12.7109375" customWidth="true"/>
-    <col min="93" max="93" width="15.37890625" customWidth="true"/>
-    <col min="94" max="94" width="14.7109375" customWidth="true"/>
+    <col min="93" max="93" width="15.7109375" customWidth="true"/>
+    <col min="94" max="94" width="12.7109375" customWidth="true"/>
     <col min="95" max="95" width="12.7109375" customWidth="true"/>
     <col min="96" max="96" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.089476816176974228</v>
+        <v>0.096637627326618222</v>
       </c>
       <c r="B1">
-        <v>0.83077622740021306</v>
+        <v>0.82799268065707998</v>
       </c>
       <c r="C1">
-        <v>0.54005422584669971</v>
+        <v>0.49984180365158271</v>
       </c>
       <c r="D1">
-        <v>0.95553431260648602</v>
+        <v>0.95252817638337872</v>
       </c>
       <c r="E1">
-        <v>0.015588997902490385</v>
+        <v>0.011183438618025432</v>
       </c>
       <c r="F1">
-        <v>0.8420542052643234</v>
+        <v>0.86478036933767011</v>
       </c>
       <c r="G1">
-        <v>0.85341739766848679</v>
+        <v>0.87741207577156133</v>
       </c>
       <c r="H1">
-        <v>0.99220550104875438</v>
+        <v>0.99440828069098752</v>
       </c>
       <c r="I1">
-        <v>9.6674307458063203e-05</v>
+        <v>0.018428794140688178</v>
       </c>
       <c r="J1">
-        <v>0.11150206959961806</v>
+        <v>0.77699110282821515</v>
       </c>
       <c r="K1">
-        <v>0.99976789666592114</v>
+        <v>0.86773808008971398</v>
       </c>
       <c r="L1">
-        <v>0.99995166284627113</v>
+        <v>0.99078560292965601</v>
       </c>
       <c r="M1">
-        <v>0.089476816176974228</v>
+        <v>0.096637627326618222</v>
       </c>
       <c r="N1">
-        <v>0.83077622740021306</v>
+        <v>0.82799268065707998</v>
       </c>
       <c r="O1">
-        <v>0.54005422584669971</v>
+        <v>0.49984180365158271</v>
       </c>
       <c r="P1">
-        <v>0.95553431260648602</v>
+        <v>0.95252817638337872</v>
       </c>
       <c r="Q1">
-        <v>0.015588997902490385</v>
+        <v>0.011183438618025432</v>
       </c>
       <c r="R1">
-        <v>0.8420542052643234</v>
+        <v>0.86478036933767011</v>
       </c>
       <c r="S1">
-        <v>0.85341739766848679</v>
+        <v>0.87741207577156133</v>
       </c>
       <c r="T1">
-        <v>0.99220550104875438</v>
+        <v>0.99440828069098752</v>
       </c>
       <c r="U1">
-        <v>9.6674307458063203e-05</v>
+        <v>0.018428794140688178</v>
       </c>
       <c r="V1">
-        <v>0.11150206959961806</v>
+        <v>0.77699110282821515</v>
       </c>
       <c r="W1">
-        <v>0.99976789666592114</v>
+        <v>0.86773808008971398</v>
       </c>
       <c r="X1">
-        <v>0.99995166284627113</v>
+        <v>0.99078560292965601</v>
       </c>
       <c r="Y1">
-        <v>0.14106290531558754</v>
+        <v>0.13490676560310264</v>
       </c>
       <c r="Z1">
-        <v>0.73882695616697347</v>
+        <v>0.76266802813536494</v>
       </c>
       <c r="AA1">
-        <v>0.50933428926017243</v>
+        <v>0.47659242029821608</v>
       </c>
       <c r="AB1">
-        <v>0.93158374908242525</v>
+        <v>0.934956875206571</v>
       </c>
       <c r="AC1">
-        <v>0.023866139909004776</v>
+        <v>0.016618430848929559</v>
       </c>
       <c r="AD1">
-        <v>0.76225558735273191</v>
+        <v>0.81462510268598476</v>
       </c>
       <c r="AE1">
-        <v>0.84599478740250977</v>
+        <v>0.87245994883036426</v>
       </c>
       <c r="AF1">
-        <v>0.98806693004549784</v>
+        <v>0.99169081434808404</v>
       </c>
       <c r="AG1">
-        <v>0.00011909839758787578</v>
+        <v>0.024057368767504594</v>
       </c>
       <c r="AH1">
-        <v>0.040817847475610576</v>
+        <v>0.71905920412268975</v>
       </c>
       <c r="AI1">
-        <v>0.99974569701404548</v>
+        <v>0.86292935784782721</v>
       </c>
       <c r="AJ1">
-        <v>0.99994045080120608</v>
+        <v>0.98797131561624774</v>
       </c>
       <c r="AK1">
-        <v>0.14106290531558754</v>
+        <v>0.13490676560310264</v>
       </c>
       <c r="AL1">
-        <v>0.73882695616697347</v>
+        <v>0.76266802813536494</v>
       </c>
       <c r="AM1">
-        <v>0.50933428926017243</v>
+        <v>0.47659242029821608</v>
       </c>
       <c r="AN1">
-        <v>0.93158374908242525</v>
+        <v>0.934956875206571</v>
       </c>
       <c r="AO1">
-        <v>0.023866139909004776</v>
+        <v>0.016618430848929559</v>
       </c>
       <c r="AP1">
-        <v>0.76225558735273191</v>
+        <v>0.81462510268598476</v>
       </c>
       <c r="AQ1">
-        <v>0.84599478740250977</v>
+        <v>0.87245994883036426</v>
       </c>
       <c r="AR1">
-        <v>0.98806693004549784</v>
+        <v>0.99169081434808404</v>
       </c>
       <c r="AS1">
-        <v>0.00011909839758787578</v>
+        <v>0.024057368767504594</v>
       </c>
       <c r="AT1">
-        <v>0.040817847475610576</v>
+        <v>0.71905920412268975</v>
       </c>
       <c r="AU1">
-        <v>0.99974569701404548</v>
+        <v>0.86292935784782721</v>
       </c>
       <c r="AV1">
-        <v>0.99994045080120608</v>
+        <v>0.98797131561624774</v>
       </c>
       <c r="AW1">
-        <v>0.10608878034269778</v>
+        <v>0.097678890828783116</v>
       </c>
       <c r="AX1">
-        <v>0.80353710011143764</v>
+        <v>0.82908341126129093</v>
       </c>
       <c r="AY1">
-        <v>0.52962478119337342</v>
+        <v>0.49827273303188102</v>
       </c>
       <c r="AZ1">
-        <v>0.94751259622064654</v>
+        <v>0.95166192491972634</v>
       </c>
       <c r="BA1">
-        <v>0.016674572385007656</v>
+        <v>0.012144915235883022</v>
       </c>
       <c r="BB1">
-        <v>0.83036415994377255</v>
+        <v>0.87039543551629084</v>
       </c>
       <c r="BC1">
-        <v>0.85245672421091656</v>
+        <v>0.87650393113458269</v>
       </c>
       <c r="BD1">
-        <v>0.99166271380749604</v>
+        <v>0.99392754238205916</v>
       </c>
       <c r="BE1">
-        <v>0.00010462860939784703</v>
+        <v>0.019713253019309478</v>
       </c>
       <c r="BF1">
-        <v>0.079388791456137642</v>
+        <v>0.79950300084289605</v>
       </c>
       <c r="BG1">
-        <v>0.99976000604825899</v>
+        <v>0.86666629889741098</v>
       </c>
       <c r="BH1">
-        <v>0.99994768569530124</v>
+        <v>0.99014337349034565</v>
       </c>
       <c r="BI1">
-        <v>0.10608878034269778</v>
+        <v>0.097678890828783116</v>
       </c>
       <c r="BJ1">
-        <v>0.80353710011143764</v>
+        <v>0.82908341126129093</v>
       </c>
       <c r="BK1">
-        <v>0.52962478119337342</v>
+        <v>0.49827273303188102</v>
       </c>
       <c r="BL1">
-        <v>0.94751259622064654</v>
+        <v>0.95166192491972634</v>
       </c>
       <c r="BM1">
-        <v>0.016674572385007656</v>
+        <v>0.012144915235883022</v>
       </c>
       <c r="BN1">
-        <v>0.83036415994377255</v>
+        <v>0.87039543551629084</v>
       </c>
       <c r="BO1">
-        <v>0.85245672421091656</v>
+        <v>0.87650393113458269</v>
       </c>
       <c r="BP1">
-        <v>0.99166271380749604</v>
+        <v>0.99392754238205916</v>
       </c>
       <c r="BQ1">
-        <v>0.00010462860939784703</v>
+        <v>0.019713253019309478</v>
       </c>
       <c r="BR1">
-        <v>0.079388791456137642</v>
+        <v>0.79950300084289605</v>
       </c>
       <c r="BS1">
-        <v>0.99976000604825899</v>
+        <v>0.86666629889741098</v>
       </c>
       <c r="BT1">
-        <v>0.99994768569530124</v>
+        <v>0.99014337349034565</v>
       </c>
       <c r="BU1">
-        <v>0.13174946819909414</v>
+        <v>0.13675544433939277</v>
       </c>
       <c r="BV1">
-        <v>0.75158532078026219</v>
+        <v>0.75829326940158126</v>
       </c>
       <c r="BW1">
-        <v>0.5137878495356627</v>
+        <v>0.47565344373798668</v>
       </c>
       <c r="BX1">
-        <v>0.93560247741307667</v>
+        <v>0.93433606771525124</v>
       </c>
       <c r="BY1">
-        <v>0.022560729730184387</v>
+        <v>0.01620699350830352</v>
       </c>
       <c r="BZ1">
-        <v>0.76898723047551165</v>
+        <v>0.81639347050205635</v>
       </c>
       <c r="CA1">
-        <v>0.84711851873861155</v>
+        <v>0.87282571254663488</v>
       </c>
       <c r="CB1">
-        <v>0.98871968611371785</v>
+        <v>0.99189653301839653</v>
       </c>
       <c r="CC1">
-        <v>0.00011361066795033837</v>
+        <v>0.023784123914314895</v>
       </c>
       <c r="CD1">
-        <v>0.046269909188358806</v>
+        <v>0.7117536128782932</v>
       </c>
       <c r="CE1">
-        <v>0.99975114949797272</v>
+        <v>0.86316578841944192</v>
       </c>
       <c r="CF1">
-        <v>0.99994319466602499</v>
+        <v>0.98810793804284269</v>
       </c>
       <c r="CG1">
-        <v>0.13174946819909414</v>
+        <v>0.13675544433939277</v>
       </c>
       <c r="CH1">
-        <v>0.75158532078026219</v>
+        <v>0.75829326940158126</v>
       </c>
       <c r="CI1">
-        <v>0.5137878495356627</v>
+        <v>0.47565344373798668</v>
       </c>
       <c r="CJ1">
-        <v>0.93560247741307667</v>
+        <v>0.93433606771525124</v>
       </c>
       <c r="CK1">
-        <v>0.022560729730184387</v>
+        <v>0.01620699350830352</v>
       </c>
       <c r="CL1">
-        <v>0.76898723047551165</v>
+        <v>0.81639347050205635</v>
       </c>
       <c r="CM1">
-        <v>0.84711851873861155</v>
+        <v>0.87282571254663488</v>
       </c>
       <c r="CN1">
-        <v>0.98871968611371785</v>
+        <v>0.99189653301839653</v>
       </c>
       <c r="CO1">
-        <v>0.00011361066795033837</v>
+        <v>0.023784123914314895</v>
       </c>
       <c r="CP1">
-        <v>0.046269909188358806</v>
+        <v>0.7117536128782932</v>
       </c>
       <c r="CQ1">
-        <v>0.99975114949797272</v>
+        <v>0.86316578841944192</v>
       </c>
       <c r="CR1">
-        <v>0.99994319466602499</v>
+        <v>0.98810793804284269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.11555171144698131</v>
+        <v>0.15552109675793721</v>
       </c>
       <c r="B2">
-        <v>0.81071122389241235</v>
+        <v>0.77419191903122864</v>
       </c>
       <c r="C2">
-        <v>0.47404826985855941</v>
+        <v>0.41954117957896264</v>
       </c>
       <c r="D2">
-        <v>0.94314461011958195</v>
+        <v>0.9233151870715588</v>
       </c>
       <c r="E2">
-        <v>0.024470307139462209</v>
+        <v>0.0525482179772154</v>
       </c>
       <c r="F2">
-        <v>0.8689555471744167</v>
+        <v>0.8777785644898054</v>
       </c>
       <c r="G2">
-        <v>0.76293212606858096</v>
+        <v>0.52101223235662197</v>
       </c>
       <c r="H2">
-        <v>0.98776484643026841</v>
+        <v>0.9737258910113924</v>
       </c>
       <c r="I2">
-        <v>0.012565173732406017</v>
+        <v>0.00017412683188521792</v>
       </c>
       <c r="J2">
-        <v>0.77614611843645465</v>
+        <v>0.77436049104254501</v>
       </c>
       <c r="K2">
-        <v>0.90995606092971815</v>
+        <v>0.99917141666708575</v>
       </c>
       <c r="L2">
-        <v>0.99371741313379647</v>
+        <v>0.99991293658405767</v>
       </c>
       <c r="M2">
-        <v>0.11555171144698131</v>
+        <v>0.15552109675793721</v>
       </c>
       <c r="N2">
-        <v>0.81071122389241235</v>
+        <v>0.77419191903122864</v>
       </c>
       <c r="O2">
-        <v>0.47404826985855941</v>
+        <v>0.41954117957896264</v>
       </c>
       <c r="P2">
-        <v>0.94314461011958195</v>
+        <v>0.9233151870715588</v>
       </c>
       <c r="Q2">
-        <v>0.024470307139462209</v>
+        <v>0.0525482179772154</v>
       </c>
       <c r="R2">
-        <v>0.8689555471744167</v>
+        <v>0.8777785644898054</v>
       </c>
       <c r="S2">
-        <v>0.76293212606858096</v>
+        <v>0.52101223235662197</v>
       </c>
       <c r="T2">
-        <v>0.98776484643026841</v>
+        <v>0.9737258910113924</v>
       </c>
       <c r="U2">
-        <v>0.012565173732406017</v>
+        <v>0.00017412683188521792</v>
       </c>
       <c r="V2">
-        <v>0.77614611843645465</v>
+        <v>0.77436049104254501</v>
       </c>
       <c r="W2">
-        <v>0.90995606092971815</v>
+        <v>0.99917141666708575</v>
       </c>
       <c r="X2">
-        <v>0.99371741313379647</v>
+        <v>0.99991293658405767</v>
       </c>
       <c r="Y2">
-        <v>0.1672059626191966</v>
+        <v>0.23546086952113082</v>
       </c>
       <c r="Z2">
-        <v>0.72957514470032514</v>
+        <v>0.65964301366778766</v>
       </c>
       <c r="AA2">
-        <v>0.44564559358702027</v>
+        <v>0.38024852581996466</v>
       </c>
       <c r="AB2">
-        <v>0.91976036384554771</v>
+        <v>0.88764698134678155</v>
       </c>
       <c r="AC2">
-        <v>0.0363550632498622</v>
+        <v>0.078062663795229234</v>
       </c>
       <c r="AD2">
-        <v>0.81639633278416623</v>
+        <v>0.82013930959541825</v>
       </c>
       <c r="AE2">
-        <v>0.75258218554580913</v>
+        <v>0.49925559143504988</v>
       </c>
       <c r="AF2">
-        <v>0.98182253089907734</v>
+        <v>0.96096879983702665</v>
       </c>
       <c r="AG2">
-        <v>0.016398785698530656</v>
+        <v>0.00021461015654798606</v>
       </c>
       <c r="AH2">
-        <v>0.71098984960275058</v>
+        <v>0.69393762873042486</v>
       </c>
       <c r="AI2">
-        <v>0.9066794165775941</v>
+        <v>0.99913237087446061</v>
       </c>
       <c r="AJ2">
-        <v>0.99180060715073426</v>
+        <v>0.99989269492172628</v>
       </c>
       <c r="AK2">
-        <v>0.1672059626191966</v>
+        <v>0.23546086952113082</v>
       </c>
       <c r="AL2">
-        <v>0.72957514470032514</v>
+        <v>0.65964301366778766</v>
       </c>
       <c r="AM2">
-        <v>0.44564559358702027</v>
+        <v>0.38024852581996466</v>
       </c>
       <c r="AN2">
-        <v>0.91976036384554771</v>
+        <v>0.88764698134678155</v>
       </c>
       <c r="AO2">
-        <v>0.0363550632498622</v>
+        <v>0.078062663795229234</v>
       </c>
       <c r="AP2">
-        <v>0.81639633278416623</v>
+        <v>0.82013930959541825</v>
       </c>
       <c r="AQ2">
-        <v>0.75258218554580913</v>
+        <v>0.49925559143504988</v>
       </c>
       <c r="AR2">
-        <v>0.98182253089907734</v>
+        <v>0.96096879983702665</v>
       </c>
       <c r="AS2">
-        <v>0.016398785698530656</v>
+        <v>0.00021461015654798606</v>
       </c>
       <c r="AT2">
-        <v>0.71098984960275058</v>
+        <v>0.69393762873042486</v>
       </c>
       <c r="AU2">
-        <v>0.9066794165775941</v>
+        <v>0.99913237087446061</v>
       </c>
       <c r="AV2">
-        <v>0.99180060715073426</v>
+        <v>0.99989269492172628</v>
       </c>
       <c r="AW2">
-        <v>0.1225064784252247</v>
+        <v>0.17497232391204481</v>
       </c>
       <c r="AX2">
-        <v>0.80164865563620591</v>
+        <v>0.74367332299451872</v>
       </c>
       <c r="AY2">
-        <v>0.46943043337293672</v>
+        <v>0.4084806680559222</v>
       </c>
       <c r="AZ2">
-        <v>0.93960128391099251</v>
+        <v>0.91411464630762973</v>
       </c>
       <c r="BA2">
-        <v>0.025588061621599899</v>
+        <v>0.053996220021605416</v>
       </c>
       <c r="BB2">
-        <v>0.87226464813884774</v>
+        <v>0.87621468236010003</v>
       </c>
       <c r="BC2">
-        <v>0.76194385021409694</v>
+        <v>0.51985462260854176</v>
       </c>
       <c r="BD2">
-        <v>0.98720596918920067</v>
+        <v>0.97300188998919723</v>
       </c>
       <c r="BE2">
-        <v>0.013431548539124651</v>
+        <v>0.00015700322250766465</v>
       </c>
       <c r="BF2">
-        <v>0.79290766052212502</v>
+        <v>0.77897033758011835</v>
       </c>
       <c r="BG2">
-        <v>0.90923410977718044</v>
+        <v>0.99918872899480771</v>
       </c>
       <c r="BH2">
-        <v>0.99328422573043806</v>
+        <v>0.999921498388746</v>
       </c>
       <c r="BI2">
-        <v>0.1225064784252247</v>
+        <v>0.17497232391204481</v>
       </c>
       <c r="BJ2">
-        <v>0.80164865563620591</v>
+        <v>0.74367332299451872</v>
       </c>
       <c r="BK2">
-        <v>0.46943043337293672</v>
+        <v>0.4084806680559222</v>
       </c>
       <c r="BL2">
-        <v>0.93960128391099251</v>
+        <v>0.91411464630762973</v>
       </c>
       <c r="BM2">
-        <v>0.025588061621599899</v>
+        <v>0.053996220021605416</v>
       </c>
       <c r="BN2">
-        <v>0.87226464813884774</v>
+        <v>0.87621468236010003</v>
       </c>
       <c r="BO2">
-        <v>0.76194385021409694</v>
+        <v>0.51985462260854176</v>
       </c>
       <c r="BP2">
-        <v>0.98720596918920067</v>
+        <v>0.97300188998919723</v>
       </c>
       <c r="BQ2">
-        <v>0.013431548539124651</v>
+        <v>0.00015700322250766465</v>
       </c>
       <c r="BR2">
-        <v>0.79290766052212502</v>
+        <v>0.77897033758011835</v>
       </c>
       <c r="BS2">
-        <v>0.90923410977718044</v>
+        <v>0.99918872899480771</v>
       </c>
       <c r="BT2">
-        <v>0.99328422573043806</v>
+        <v>0.999921498388746</v>
       </c>
       <c r="BU2">
-        <v>0.16673529437726228</v>
+        <v>0.23008893974030689</v>
       </c>
       <c r="BV2">
-        <v>0.72756596984341271</v>
+        <v>0.66263280851294348</v>
       </c>
       <c r="BW2">
-        <v>0.44585613293969228</v>
+        <v>0.38288823087537283</v>
       </c>
       <c r="BX2">
-        <v>0.9202757730514165</v>
+        <v>0.89056345225236866</v>
       </c>
       <c r="BY2">
-        <v>0.035787955135766054</v>
+        <v>0.077166591027762341</v>
       </c>
       <c r="BZ2">
-        <v>0.81820756491315516</v>
+        <v>0.82204112291396891</v>
       </c>
       <c r="CA2">
-        <v>0.75305653479016199</v>
+        <v>0.49995940443685999</v>
       </c>
       <c r="CB2">
-        <v>0.98210604264136148</v>
+        <v>0.96141670448611893</v>
       </c>
       <c r="CC2">
-        <v>0.01621559688007659</v>
+        <v>0.00022172843036545215</v>
       </c>
       <c r="CD2">
-        <v>0.70547535797148631</v>
+        <v>0.69220810231936614</v>
       </c>
       <c r="CE2">
-        <v>0.90683759203801817</v>
+        <v>0.9991251770433125</v>
       </c>
       <c r="CF2">
-        <v>0.99189220155996227</v>
+        <v>0.99988913578481731</v>
       </c>
       <c r="CG2">
-        <v>0.16673529437726228</v>
+        <v>0.23008893974030689</v>
       </c>
       <c r="CH2">
-        <v>0.72756596984341271</v>
+        <v>0.66263280851294348</v>
       </c>
       <c r="CI2">
-        <v>0.44585613293969228</v>
+        <v>0.38288823087537283</v>
       </c>
       <c r="CJ2">
-        <v>0.9202757730514165</v>
+        <v>0.89056345225236866</v>
       </c>
       <c r="CK2">
-        <v>0.035787955135766054</v>
+        <v>0.077166591027762341</v>
       </c>
       <c r="CL2">
-        <v>0.81820756491315516</v>
+        <v>0.82204112291396891</v>
       </c>
       <c r="CM2">
-        <v>0.75305653479016199</v>
+        <v>0.49995940443685999</v>
       </c>
       <c r="CN2">
-        <v>0.98210604264136148</v>
+        <v>0.96141670448611893</v>
       </c>
       <c r="CO2">
-        <v>0.01621559688007659</v>
+        <v>0.00022172843036545215</v>
       </c>
       <c r="CP2">
-        <v>0.70547535797148631</v>
+        <v>0.69220810231936614</v>
       </c>
       <c r="CQ2">
-        <v>0.90683759203801817</v>
+        <v>0.9991251770433125</v>
       </c>
       <c r="CR2">
-        <v>0.99189220155996227</v>
+        <v>0.99988913578481731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.080626287550575548</v>
+        <v>0.086302538475079571</v>
       </c>
       <c r="B3">
-        <v>0.83507574159718978</v>
+        <v>0.83455039767645123</v>
       </c>
       <c r="C3">
-        <v>0.54521588752400729</v>
+        <v>0.50443010390314147</v>
       </c>
       <c r="D3">
-        <v>0.9598645677354174</v>
+        <v>0.95696565761922858</v>
       </c>
       <c r="E3">
-        <v>3.8726608239856322e-06</v>
+        <v>2.6515463308567155e-06</v>
       </c>
       <c r="F3">
-        <v>0.043056389512031133</v>
+        <v>0.025403086472195358</v>
       </c>
       <c r="G3">
-        <v>0.99999136590015503</v>
+        <v>0.99999417253828582</v>
       </c>
       <c r="H3">
-        <v>0.99999806366958799</v>
+        <v>0.99999867422683464</v>
       </c>
       <c r="I3">
-        <v>4.4348048407611523e-06</v>
+        <v>0.00088434981650022874</v>
       </c>
       <c r="J3">
-        <v>0.013314973795977613</v>
+        <v>0.33135529984943962</v>
       </c>
       <c r="K3">
-        <v>0.99998983401561825</v>
+        <v>0.99314677960112152</v>
       </c>
       <c r="L3">
-        <v>0.99999778259757954</v>
+        <v>0.9995578250917494</v>
       </c>
       <c r="M3">
-        <v>0.080626287550575548</v>
+        <v>0.086302538475079571</v>
       </c>
       <c r="N3">
-        <v>0.83507574159718978</v>
+        <v>0.83455039767645123</v>
       </c>
       <c r="O3">
-        <v>0.54521588752400729</v>
+        <v>0.50443010390314147</v>
       </c>
       <c r="P3">
-        <v>0.9598645677354174</v>
+        <v>0.95696565761922858</v>
       </c>
       <c r="Q3">
-        <v>3.8726608239856322e-06</v>
+        <v>2.6515463308567155e-06</v>
       </c>
       <c r="R3">
-        <v>0.043056389512031133</v>
+        <v>0.025403086472195358</v>
       </c>
       <c r="S3">
-        <v>0.99999136590015503</v>
+        <v>0.99999417253828582</v>
       </c>
       <c r="T3">
-        <v>0.99999806366958799</v>
+        <v>0.99999867422683464</v>
       </c>
       <c r="U3">
-        <v>4.4348048407611523e-06</v>
+        <v>0.00088434981650022874</v>
       </c>
       <c r="V3">
-        <v>0.013314973795977613</v>
+        <v>0.33135529984943962</v>
       </c>
       <c r="W3">
-        <v>0.99998983401561825</v>
+        <v>0.99314677960112152</v>
       </c>
       <c r="X3">
-        <v>0.99999778259757954</v>
+        <v>0.9995578250917494</v>
       </c>
       <c r="Y3">
-        <v>0.12682196614299629</v>
+        <v>0.13504219710661328</v>
       </c>
       <c r="Z3">
-        <v>0.73966078000001978</v>
+        <v>0.7402203822079082</v>
       </c>
       <c r="AA3">
-        <v>0.51449688872712263</v>
+        <v>0.47154415549923956</v>
       </c>
       <c r="AB3">
-        <v>0.93779050973454881</v>
+        <v>0.93333124201301521</v>
       </c>
       <c r="AC3">
-        <v>4.4879082183317165e-06</v>
+        <v>3.0153625987663294e-06</v>
       </c>
       <c r="AD3">
-        <v>0.01129732021233372</v>
+        <v>0.0066652351752137309</v>
       </c>
       <c r="AE3">
-        <v>0.9999908604638833</v>
+        <v>0.99999387269032025</v>
       </c>
       <c r="AF3">
-        <v>0.9999977560458907</v>
+        <v>0.99999849231870064</v>
       </c>
       <c r="AG3">
-        <v>4.9626482608891066e-06</v>
+        <v>0.0013719091321838636</v>
       </c>
       <c r="AH3">
-        <v>0.0080685475963951214</v>
+        <v>0.28249448831805862</v>
       </c>
       <c r="AI3">
-        <v>0.99998933902821741</v>
+        <v>0.99266930237097251</v>
       </c>
       <c r="AJ3">
-        <v>0.99999751867586983</v>
+        <v>0.99931404543390845</v>
       </c>
       <c r="AK3">
-        <v>0.12682196614299629</v>
+        <v>0.13504219710661328</v>
       </c>
       <c r="AL3">
-        <v>0.73966078000001978</v>
+        <v>0.7402203822079082</v>
       </c>
       <c r="AM3">
-        <v>0.51449688872712263</v>
+        <v>0.47154415549923956</v>
       </c>
       <c r="AN3">
-        <v>0.93779050973454881</v>
+        <v>0.93333124201301521</v>
       </c>
       <c r="AO3">
-        <v>4.4879082183317165e-06</v>
+        <v>3.0153625987663294e-06</v>
       </c>
       <c r="AP3">
-        <v>0.01129732021233372</v>
+        <v>0.0066652351752137309</v>
       </c>
       <c r="AQ3">
-        <v>0.9999908604638833</v>
+        <v>0.99999387269032025</v>
       </c>
       <c r="AR3">
-        <v>0.9999977560458907</v>
+        <v>0.99999849231870064</v>
       </c>
       <c r="AS3">
-        <v>4.9626482608891066e-06</v>
+        <v>0.0013719091321838636</v>
       </c>
       <c r="AT3">
-        <v>0.0080685475963951214</v>
+        <v>0.28249448831805862</v>
       </c>
       <c r="AU3">
-        <v>0.99998933902821741</v>
+        <v>0.99266930237097251</v>
       </c>
       <c r="AV3">
-        <v>0.99999751867586983</v>
+        <v>0.99931404543390845</v>
       </c>
       <c r="AW3">
-        <v>0.097712014747718054</v>
+        <v>0.10331444787576101</v>
       </c>
       <c r="AX3">
-        <v>0.79844791952532801</v>
+        <v>0.80082936782800462</v>
       </c>
       <c r="AY3">
-        <v>0.53320560257702954</v>
+        <v>0.4924537228952518</v>
       </c>
       <c r="AZ3">
-        <v>0.95143509237445156</v>
+        <v>0.94855366182069101</v>
       </c>
       <c r="BA3">
-        <v>2.7817833598247091e-06</v>
+        <v>2.007995865136641e-06</v>
       </c>
       <c r="BB3">
-        <v>0.052258624934056308</v>
+        <v>0.030832405337570527</v>
       </c>
       <c r="BC3">
-        <v>0.99999257721361934</v>
+        <v>0.99999488707875717</v>
       </c>
       <c r="BD3">
-        <v>0.99999860910832017</v>
+        <v>0.99999899600206732</v>
       </c>
       <c r="BE3">
-        <v>3.3892291093832211e-06</v>
+        <v>0.0009395197780312554</v>
       </c>
       <c r="BF3">
-        <v>0.036196247900057314</v>
+        <v>0.34220893909764899</v>
       </c>
       <c r="BG3">
-        <v>0.9999909251020842</v>
+        <v>0.99309174545079326</v>
       </c>
       <c r="BH3">
-        <v>0.99999830538544532</v>
+        <v>0.99953024011098435</v>
       </c>
       <c r="BI3">
-        <v>0.097712014747718054</v>
+        <v>0.10331444787576101</v>
       </c>
       <c r="BJ3">
-        <v>0.79844791952532801</v>
+        <v>0.80082936782800462</v>
       </c>
       <c r="BK3">
-        <v>0.53320560257702954</v>
+        <v>0.4924537228952518</v>
       </c>
       <c r="BL3">
-        <v>0.95143509237445156</v>
+        <v>0.94855366182069101</v>
       </c>
       <c r="BM3">
-        <v>2.7817833598247091e-06</v>
+        <v>2.007995865136641e-06</v>
       </c>
       <c r="BN3">
-        <v>0.052258624934056308</v>
+        <v>0.030832405337570527</v>
       </c>
       <c r="BO3">
-        <v>0.99999257721361934</v>
+        <v>0.99999488707875717</v>
       </c>
       <c r="BP3">
-        <v>0.99999860910832017</v>
+        <v>0.99999899600206732</v>
       </c>
       <c r="BQ3">
-        <v>3.3892291093832211e-06</v>
+        <v>0.0009395197780312554</v>
       </c>
       <c r="BR3">
-        <v>0.036196247900057314</v>
+        <v>0.34220893909764899</v>
       </c>
       <c r="BS3">
-        <v>0.9999909251020842</v>
+        <v>0.99309174545079326</v>
       </c>
       <c r="BT3">
-        <v>0.99999830538544532</v>
+        <v>0.99953024011098435</v>
       </c>
       <c r="BU3">
-        <v>0.12110365067533919</v>
+        <v>0.12866686121462967</v>
       </c>
       <c r="BV3">
-        <v>0.74937259731957873</v>
+        <v>0.75180808305300628</v>
       </c>
       <c r="BW3">
-        <v>0.51783911503818458</v>
+        <v>0.47581356462940927</v>
       </c>
       <c r="BX3">
-        <v>0.94049431026514141</v>
+        <v>0.93646553554294731</v>
       </c>
       <c r="BY3">
-        <v>4.1500872034574873e-06</v>
+        <v>2.816048199990535e-06</v>
       </c>
       <c r="BZ3">
-        <v>0.015534712665300106</v>
+        <v>0.0091652967224638976</v>
       </c>
       <c r="CA3">
-        <v>0.9999913274574147</v>
+        <v>0.99999414821650379</v>
       </c>
       <c r="CB3">
-        <v>0.99999792495639817</v>
+        <v>0.99999859197590002</v>
       </c>
       <c r="CC3">
-        <v>4.9560601982274492e-06</v>
+        <v>0.0013641521051131569</v>
       </c>
       <c r="CD3">
-        <v>0.0066561215149430796</v>
+        <v>0.28365851802059966</v>
       </c>
       <c r="CE3">
-        <v>0.99998934559961694</v>
+        <v>0.99267706728405714</v>
       </c>
       <c r="CF3">
-        <v>0.99999752196990099</v>
+        <v>0.99931792394744379</v>
       </c>
       <c r="CG3">
-        <v>0.12110365067533919</v>
+        <v>0.12866686121462967</v>
       </c>
       <c r="CH3">
-        <v>0.74937259731957873</v>
+        <v>0.75180808305300628</v>
       </c>
       <c r="CI3">
-        <v>0.51783911503818458</v>
+        <v>0.47581356462940927</v>
       </c>
       <c r="CJ3">
-        <v>0.94049431026514141</v>
+        <v>0.93646553554294731</v>
       </c>
       <c r="CK3">
-        <v>4.1500872034574873e-06</v>
+        <v>2.816048199990535e-06</v>
       </c>
       <c r="CL3">
-        <v>0.015534712665300106</v>
+        <v>0.0091652967224638976</v>
       </c>
       <c r="CM3">
-        <v>0.9999913274574147</v>
+        <v>0.99999414821650379</v>
       </c>
       <c r="CN3">
-        <v>0.99999792495639817</v>
+        <v>0.99999859197590002</v>
       </c>
       <c r="CO3">
-        <v>4.9560601982274492e-06</v>
+        <v>0.0013641521051131569</v>
       </c>
       <c r="CP3">
-        <v>0.0066561215149430796</v>
+        <v>0.28365851802059966</v>
       </c>
       <c r="CQ3">
-        <v>0.99998934559961694</v>
+        <v>0.99267706728405714</v>
       </c>
       <c r="CR3">
-        <v>0.99999752196990099</v>
+        <v>0.99931792394744379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.094470802000585302</v>
+        <v>0.089476816176974228</v>
       </c>
       <c r="B4">
-        <v>0.83379441496124351</v>
+        <v>0.83077622740021306</v>
       </c>
       <c r="C4">
-        <v>0.44573836649750409</v>
+        <v>0.54005422584669971</v>
       </c>
       <c r="D4">
-        <v>0.9527940552569083</v>
+        <v>0.95553431260648602</v>
       </c>
       <c r="E4">
-        <v>8.9433279196388326e-07</v>
+        <v>0.015588997902490385</v>
       </c>
       <c r="F4">
-        <v>-4.471704951541251e-07</v>
+        <v>0.8420542052643234</v>
       </c>
       <c r="G4">
-        <v>0.99999821135901079</v>
+        <v>0.85341739766848679</v>
       </c>
       <c r="H4">
-        <v>0.99999955283360387</v>
+        <v>0.99220550104875438</v>
       </c>
       <c r="I4">
-        <v>0.002150568979619951</v>
+        <v>9.6674307458063203e-05</v>
       </c>
       <c r="J4">
-        <v>0.78902308612149497</v>
+        <v>0.11150206959961806</v>
       </c>
       <c r="K4">
-        <v>0.98329945739489477</v>
+        <v>0.99976789666592114</v>
       </c>
       <c r="L4">
-        <v>0.99892471551018991</v>
+        <v>0.99995166284627113</v>
       </c>
       <c r="M4">
-        <v>0.094470802000585302</v>
+        <v>0.089476816176974228</v>
       </c>
       <c r="N4">
-        <v>0.83379441496124351</v>
+        <v>0.83077622740021306</v>
       </c>
       <c r="O4">
-        <v>0.44573836649750409</v>
+        <v>0.54005422584669971</v>
       </c>
       <c r="P4">
-        <v>0.9527940552569083</v>
+        <v>0.95553431260648602</v>
       </c>
       <c r="Q4">
-        <v>8.9433279196388326e-07</v>
+        <v>0.015588997902490385</v>
       </c>
       <c r="R4">
-        <v>-4.471704951541251e-07</v>
+        <v>0.8420542052643234</v>
       </c>
       <c r="S4">
-        <v>0.99999821135901079</v>
+        <v>0.85341739766848679</v>
       </c>
       <c r="T4">
-        <v>0.99999955283360387</v>
+        <v>0.99220550104875438</v>
       </c>
       <c r="U4">
-        <v>0.002150568979619951</v>
+        <v>9.6674307458063203e-05</v>
       </c>
       <c r="V4">
-        <v>0.78902308612149497</v>
+        <v>0.11150206959961806</v>
       </c>
       <c r="W4">
-        <v>0.98329945739489477</v>
+        <v>0.99976789666592114</v>
       </c>
       <c r="X4">
-        <v>0.99892471551018991</v>
+        <v>0.99995166284627113</v>
       </c>
       <c r="Y4">
-        <v>0.14687130995669642</v>
+        <v>0.14106290531558754</v>
       </c>
       <c r="Z4">
-        <v>0.74102566343389398</v>
+        <v>0.73882695616697347</v>
       </c>
       <c r="AA4">
-        <v>0.40973412475667725</v>
+        <v>0.50933428926017243</v>
       </c>
       <c r="AB4">
-        <v>0.9269142469991013</v>
+        <v>0.93158374908242525</v>
       </c>
       <c r="AC4">
-        <v>8.9633353646492103e-07</v>
+        <v>0.023866139909004776</v>
       </c>
       <c r="AD4">
-        <v>-4.4817088576605898e-07</v>
+        <v>0.76225558735273191</v>
       </c>
       <c r="AE4">
-        <v>0.99999820735763201</v>
+        <v>0.84599478740250977</v>
       </c>
       <c r="AF4">
-        <v>0.99999955183323186</v>
+        <v>0.98806693004549784</v>
       </c>
       <c r="AG4">
-        <v>0.0033389784627071684</v>
+        <v>0.00011909839758787578</v>
       </c>
       <c r="AH4">
-        <v>0.67740011033215974</v>
+        <v>0.040817847475610576</v>
       </c>
       <c r="AI4">
-        <v>0.98213559108371873</v>
+        <v>0.99974569701404548</v>
       </c>
       <c r="AJ4">
-        <v>0.99833051076864654</v>
+        <v>0.99994045080120608</v>
       </c>
       <c r="AK4">
-        <v>0.14687130995669642</v>
+        <v>0.14106290531558754</v>
       </c>
       <c r="AL4">
-        <v>0.74102566343389398</v>
+        <v>0.73882695616697347</v>
       </c>
       <c r="AM4">
-        <v>0.40973412475667725</v>
+        <v>0.50933428926017243</v>
       </c>
       <c r="AN4">
-        <v>0.9269142469991013</v>
+        <v>0.93158374908242525</v>
       </c>
       <c r="AO4">
-        <v>8.9633353646492103e-07</v>
+        <v>0.023866139909004776</v>
       </c>
       <c r="AP4">
-        <v>-4.4817088576605898e-07</v>
+        <v>0.76225558735273191</v>
       </c>
       <c r="AQ4">
-        <v>0.99999820735763201</v>
+        <v>0.84599478740250977</v>
       </c>
       <c r="AR4">
-        <v>0.99999955183323186</v>
+        <v>0.98806693004549784</v>
       </c>
       <c r="AS4">
-        <v>0.0033389784627071684</v>
+        <v>0.00011909839758787578</v>
       </c>
       <c r="AT4">
-        <v>0.67740011033215974</v>
+        <v>0.040817847475610576</v>
       </c>
       <c r="AU4">
-        <v>0.98213559108371873</v>
+        <v>0.99974569701404548</v>
       </c>
       <c r="AV4">
-        <v>0.99833051076864654</v>
+        <v>0.99994045080120608</v>
       </c>
       <c r="AW4">
-        <v>0.11137648579172527</v>
+        <v>0.10608878034269778</v>
       </c>
       <c r="AX4">
-        <v>0.80425633001966101</v>
+        <v>0.80353710011143764</v>
       </c>
       <c r="AY4">
-        <v>0.4338107740848885</v>
+        <v>0.52962478119337342</v>
       </c>
       <c r="AZ4">
-        <v>0.94440721297503649</v>
+        <v>0.94751259622064654</v>
       </c>
       <c r="BA4">
-        <v>8.9449678741478797e-07</v>
+        <v>0.016674572385007656</v>
       </c>
       <c r="BB4">
-        <v>-4.4725249438306756e-07</v>
+        <v>0.83036415994377255</v>
       </c>
       <c r="BC4">
-        <v>0.99999821103102893</v>
+        <v>0.85245672421091656</v>
       </c>
       <c r="BD4">
-        <v>0.99999955275160624</v>
+        <v>0.99166271380749604</v>
       </c>
       <c r="BE4">
-        <v>0.0022866344703822419</v>
+        <v>0.00010462860939784703</v>
       </c>
       <c r="BF4">
-        <v>0.78256866545515891</v>
+        <v>0.079388791456137642</v>
       </c>
       <c r="BG4">
-        <v>0.98316365765991187</v>
+        <v>0.99976000604825899</v>
       </c>
       <c r="BH4">
-        <v>0.99885668276480866</v>
+        <v>0.99994768569530124</v>
       </c>
       <c r="BI4">
-        <v>0.11137648579172527</v>
+        <v>0.10608878034269778</v>
       </c>
       <c r="BJ4">
-        <v>0.80425633001966101</v>
+        <v>0.80353710011143764</v>
       </c>
       <c r="BK4">
-        <v>0.4338107740848885</v>
+        <v>0.52962478119337342</v>
       </c>
       <c r="BL4">
-        <v>0.94440721297503649</v>
+        <v>0.94751259622064654</v>
       </c>
       <c r="BM4">
-        <v>8.9449678741478797e-07</v>
+        <v>0.016674572385007656</v>
       </c>
       <c r="BN4">
-        <v>-4.4725249438306756e-07</v>
+        <v>0.83036415994377255</v>
       </c>
       <c r="BO4">
-        <v>0.99999821103102893</v>
+        <v>0.85245672421091656</v>
       </c>
       <c r="BP4">
-        <v>0.99999955275160624</v>
+        <v>0.99166271380749604</v>
       </c>
       <c r="BQ4">
-        <v>0.0022866344703822419</v>
+        <v>0.00010462860939784703</v>
       </c>
       <c r="BR4">
-        <v>0.78256866545515891</v>
+        <v>0.079388791456137642</v>
       </c>
       <c r="BS4">
-        <v>0.98316365765991187</v>
+        <v>0.99976000604825899</v>
       </c>
       <c r="BT4">
-        <v>0.99885668276480866</v>
+        <v>0.99994768569530124</v>
       </c>
       <c r="BU4">
-        <v>0.13955050564921839</v>
+        <v>0.13174946819909414</v>
       </c>
       <c r="BV4">
-        <v>0.75531280642549969</v>
+        <v>0.75158532078026219</v>
       </c>
       <c r="BW4">
-        <v>0.41533777257775711</v>
+        <v>0.5137878495356627</v>
       </c>
       <c r="BX4">
-        <v>0.93066803045491286</v>
+        <v>0.93560247741307667</v>
       </c>
       <c r="BY4">
-        <v>8.9633353646492103e-07</v>
+        <v>0.022560729730184387</v>
       </c>
       <c r="BZ4">
-        <v>-4.4817088576605898e-07</v>
+        <v>0.76898723047551165</v>
       </c>
       <c r="CA4">
-        <v>0.99999820735763201</v>
+        <v>0.84711851873861155</v>
       </c>
       <c r="CB4">
-        <v>0.99999955183323186</v>
+        <v>0.98871968611371785</v>
       </c>
       <c r="CC4">
-        <v>0.0033200683648687869</v>
+        <v>0.00011361066795033837</v>
       </c>
       <c r="CD4">
-        <v>0.68227172274825176</v>
+        <v>0.046269909188358806</v>
       </c>
       <c r="CE4">
-        <v>0.98215452043971463</v>
+        <v>0.99975114949797272</v>
       </c>
       <c r="CF4">
-        <v>0.99833996581756601</v>
+        <v>0.99994319466602499</v>
       </c>
       <c r="CG4">
-        <v>0.13955050564921839</v>
+        <v>0.13174946819909414</v>
       </c>
       <c r="CH4">
-        <v>0.75531280642549969</v>
+        <v>0.75158532078026219</v>
       </c>
       <c r="CI4">
-        <v>0.41533777257775711</v>
+        <v>0.5137878495356627</v>
       </c>
       <c r="CJ4">
-        <v>0.93066803045491286</v>
+        <v>0.93560247741307667</v>
       </c>
       <c r="CK4">
-        <v>8.9633353646492103e-07</v>
+        <v>0.022560729730184387</v>
       </c>
       <c r="CL4">
-        <v>-4.4817088576605898e-07</v>
+        <v>0.76898723047551165</v>
       </c>
       <c r="CM4">
-        <v>0.99999820735763201</v>
+        <v>0.84711851873861155</v>
       </c>
       <c r="CN4">
-        <v>0.99999955183323186</v>
+        <v>0.98871968611371785</v>
       </c>
       <c r="CO4">
-        <v>0.0033200683648687869</v>
+        <v>0.00011361066795033837</v>
       </c>
       <c r="CP4">
-        <v>0.68227172274825176</v>
+        <v>0.046269909188358806</v>
       </c>
       <c r="CQ4">
-        <v>0.98215452043971463</v>
+        <v>0.99975114949797272</v>
       </c>
       <c r="CR4">
-        <v>0.99833996581756601</v>
+        <v>0.99994319466602499</v>
       </c>
     </row>
   </sheetData>
